--- a/biology/Médecine/Epsine/Epsine.xlsx
+++ b/biology/Médecine/Epsine/Epsine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">les epsines sont des protéines membranaires intervenant dans les processus d'endocytose.
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles intervient, en association avec la clathrine, dans les processus d'endocytose[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles intervient, en association avec la clathrine, dans les processus d'endocytose.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur expression est augmentée dans les cancers, favorisant le caractère invasif de ces derniers[2] par l'intermédiaire de l'internalisation de plusieurs récepteurs, dont celui des facteurs de croissance de l’endothélium vasculaire ou ceux de la voie de signalisation Notch[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur expression est augmentée dans les cancers, favorisant le caractère invasif de ces derniers par l'intermédiaire de l'internalisation de plusieurs récepteurs, dont celui des facteurs de croissance de l’endothélium vasculaire ou ceux de la voie de signalisation Notch.
 </t>
         </is>
       </c>
